--- a/100runs/run086/NotionalETEOutput086.xlsx
+++ b/100runs/run086/NotionalETEOutput086.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,10 +49,19 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_271.MISSILE_BRAVER_271</t>
+    <t>MISSILE_HIGHWIND_136.MISSILE_HIGHWIND_136</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_475.MISSILE_BRAVER_475</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G2">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H2">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I2">
-        <v>-1559.460093333345</v>
+        <v>1114861.905203808</v>
       </c>
       <c r="J2">
-        <v>3324.830890248601</v>
+        <v>4843228.432388888</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.340064178</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G3">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H3">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I3">
-        <v>-1528.672198658361</v>
+        <v>1114891.519214822</v>
       </c>
       <c r="J3">
-        <v>3243.95173853642</v>
+        <v>4843179.780748841</v>
       </c>
       <c r="K3">
-        <v>210.9344720072784</v>
+        <v>3984674.136057594</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G4">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H4">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I4">
-        <v>-1497.126180401349</v>
+        <v>1114921.862443614</v>
       </c>
       <c r="J4">
-        <v>3163.072586824239</v>
+        <v>4843131.129108794</v>
       </c>
       <c r="K4">
-        <v>411.3507843513655</v>
+        <v>3984962.783390229</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G5">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H5">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I5">
-        <v>-1464.803370466562</v>
+        <v>1114952.952846498</v>
       </c>
       <c r="J5">
-        <v>3082.193435112059</v>
+        <v>4843082.477468748</v>
       </c>
       <c r="K5">
-        <v>601.2489370322626</v>
+        <v>3985236.28206208</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G6">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H6">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I6">
-        <v>-1431.684641073572</v>
+        <v>1114984.808821952</v>
       </c>
       <c r="J6">
-        <v>3001.314283399878</v>
+        <v>4843033.825828701</v>
       </c>
       <c r="K6">
-        <v>780.6289300499684</v>
+        <v>3985494.632073149</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G7">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H7">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I7">
-        <v>-1397.750393437951</v>
+        <v>1115017.449221494</v>
       </c>
       <c r="J7">
-        <v>2920.435131687698</v>
+        <v>4842985.174188655</v>
       </c>
       <c r="K7">
-        <v>949.4907634044846</v>
+        <v>3985737.833423436</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G8">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H8">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I8">
-        <v>-1362.980546173238</v>
+        <v>1115050.893360846</v>
       </c>
       <c r="J8">
-        <v>2839.555979975517</v>
+        <v>4842936.522548608</v>
       </c>
       <c r="K8">
-        <v>1107.83443709581</v>
+        <v>3985965.886112939</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G9">
-        <v>-138.6715757845582</v>
+        <v>4841120.329379288</v>
       </c>
       <c r="H9">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I9">
-        <v>-1327.354523407305</v>
+        <v>1115085.161031361</v>
       </c>
       <c r="J9">
-        <v>2758.676828263336</v>
+        <v>4842887.870908561</v>
       </c>
       <c r="K9">
-        <v>1255.659951123945</v>
+        <v>3986178.790141661</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>299.7094991740985</v>
+        <v>1116577.617743527</v>
       </c>
       <c r="G10">
-        <v>-115.7729952744686</v>
+        <v>4841136.842184057</v>
       </c>
       <c r="H10">
-        <v>724.6977948031774</v>
+        <v>3985225.520363659</v>
       </c>
       <c r="I10">
-        <v>-1290.851242606101</v>
+        <v>1115120.272511738</v>
       </c>
       <c r="J10">
-        <v>2677.797676551156</v>
+        <v>4842839.219268515</v>
       </c>
       <c r="K10">
-        <v>1392.967305488889</v>
+        <v>3986376.545509599</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>232.6095344078992</v>
+        <v>1116528.93721839</v>
       </c>
       <c r="G11">
-        <v>-92.87441476437888</v>
+        <v>4841153.354988826</v>
       </c>
       <c r="H11">
-        <v>892.8228066656036</v>
+        <v>3985424.774630039</v>
       </c>
       <c r="I11">
-        <v>-1253.449102097569</v>
+        <v>1115156.248580016</v>
       </c>
       <c r="J11">
-        <v>2596.918524838975</v>
+        <v>4842790.567628468</v>
       </c>
       <c r="K11">
-        <v>1519.756500190641</v>
+        <v>3986559.152216755</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>193.1916712053539</v>
+        <v>1116500.33985195</v>
       </c>
       <c r="G12">
-        <v>-69.97583425428924</v>
+        <v>4841169.867793595</v>
       </c>
       <c r="H12">
-        <v>992.9666619703964</v>
+        <v>3985543.460661344</v>
       </c>
       <c r="I12">
-        <v>-1215.125968288354</v>
+        <v>1115193.110525879</v>
       </c>
       <c r="J12">
-        <v>2516.039373126795</v>
+        <v>4842741.915988421</v>
       </c>
       <c r="K12">
-        <v>1636.027535229204</v>
+        <v>3986726.610263128</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>168.3082241111495</v>
+        <v>1116482.287096245</v>
       </c>
       <c r="G13">
-        <v>-47.07725374419957</v>
+        <v>4841186.380598364</v>
       </c>
       <c r="H13">
-        <v>1064.532706892305</v>
+        <v>3985628.277546237</v>
       </c>
       <c r="I13">
-        <v>-1175.859162565722</v>
+        <v>1115230.880163246</v>
       </c>
       <c r="J13">
-        <v>2435.160221414614</v>
+        <v>4842693.264348375</v>
       </c>
       <c r="K13">
-        <v>1741.780410604577</v>
+        <v>3986878.919648719</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>150.954609115493</v>
+        <v>1116469.697177696</v>
       </c>
       <c r="G14">
-        <v>-24.17867323410991</v>
+        <v>4841202.893403132</v>
       </c>
       <c r="H14">
-        <v>1120.261147731459</v>
+        <v>3985694.324409061</v>
       </c>
       <c r="I14">
-        <v>-1135.62544787697</v>
+        <v>1115269.579843186</v>
       </c>
       <c r="J14">
-        <v>2354.281069702433</v>
+        <v>4842644.612708328</v>
       </c>
       <c r="K14">
-        <v>1837.015126316759</v>
+        <v>3987016.080373527</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>138.0082926472583</v>
+        <v>1116460.304721434</v>
       </c>
       <c r="G15">
-        <v>-1.280092724020261</v>
+        <v>4841219.406207901</v>
       </c>
       <c r="H15">
-        <v>1165.907063470618</v>
+        <v>3985748.421912777</v>
       </c>
       <c r="I15">
-        <v>-1094.401014978346</v>
+        <v>1115309.232467141</v>
       </c>
       <c r="J15">
-        <v>2273.401917990253</v>
+        <v>4842595.961068281</v>
       </c>
       <c r="K15">
-        <v>1921.73168236575</v>
+        <v>3987138.092437553</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>127.886081068595</v>
+        <v>1116452.961132254</v>
       </c>
       <c r="G16">
-        <v>21.61848778606941</v>
+        <v>4841235.919012669</v>
       </c>
       <c r="H16">
-        <v>1204.56582211133</v>
+        <v>3985794.238549497</v>
       </c>
       <c r="I16">
-        <v>-1052.161468345377</v>
+        <v>1115349.861500482</v>
       </c>
       <c r="J16">
-        <v>2192.522766278072</v>
+        <v>4842547.309428234</v>
       </c>
       <c r="K16">
-        <v>1995.93007875155</v>
+        <v>3987244.955840796</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>119.6964748790645</v>
+        <v>1116447.019633904</v>
       </c>
       <c r="G17">
-        <v>44.51706829615907</v>
+        <v>4841252.431817438</v>
       </c>
       <c r="H17">
-        <v>1238.095254422912</v>
+        <v>3985833.976137399</v>
       </c>
       <c r="I17">
-        <v>-1008.88181173624</v>
+        <v>1115391.490986391</v>
       </c>
       <c r="J17">
-        <v>2111.643614565892</v>
+        <v>4842498.657788187</v>
       </c>
       <c r="K17">
-        <v>2059.61031547416</v>
+        <v>3987336.670583256</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>112.8961836215924</v>
+        <v>1116442.086073198</v>
       </c>
       <c r="G18">
-        <v>67.41564880624873</v>
+        <v>4841268.944622208</v>
       </c>
       <c r="H18">
-        <v>1267.698425292704</v>
+        <v>3985869.060495335</v>
       </c>
       <c r="I18">
-        <v>-964.5364333996586</v>
+        <v>1115434.145560091</v>
       </c>
       <c r="J18">
-        <v>2030.764462853711</v>
+        <v>4842450.006148141</v>
       </c>
       <c r="K18">
-        <v>2112.77239253358</v>
+        <v>3987413.236664934</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>107.133448439228</v>
+        <v>1116437.905251705</v>
       </c>
       <c r="G19">
-        <v>90.31422931633841</v>
+        <v>4841285.457426976</v>
       </c>
       <c r="H19">
-        <v>1294.199220234049</v>
+        <v>3985900.468055673</v>
       </c>
       <c r="I19">
-        <v>-919.099090918538</v>
+        <v>1115477.850463427</v>
       </c>
       <c r="J19">
-        <v>1949.88531114153</v>
+        <v>4842401.354508094</v>
       </c>
       <c r="K19">
-        <v>2155.416309929809</v>
+        <v>3987474.654085829</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>102.1694142941764</v>
+        <v>1116434.303881871</v>
       </c>
       <c r="G20">
-        <v>113.2128098264281</v>
+        <v>4841301.970231745</v>
       </c>
       <c r="H20">
-        <v>1318.186648578962</v>
+        <v>3985928.896886008</v>
       </c>
       <c r="I20">
-        <v>-872.5428956804083</v>
+        <v>1115522.631559801</v>
       </c>
       <c r="J20">
-        <v>1869.00615942935</v>
+        <v>4842352.702868047</v>
       </c>
       <c r="K20">
-        <v>2187.542067662847</v>
+        <v>3987520.922845942</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>97.83555598529243</v>
+        <v>1116431.159699917</v>
       </c>
       <c r="G21">
-        <v>136.1113903365177</v>
+        <v>4841318.483036514</v>
       </c>
       <c r="H21">
-        <v>1340.09642543592</v>
+        <v>3985954.863376454</v>
       </c>
       <c r="I21">
-        <v>-824.8402969654543</v>
+        <v>1115568.515349474</v>
       </c>
       <c r="J21">
-        <v>1788.127007717169</v>
+        <v>4842304.051228001</v>
       </c>
       <c r="K21">
-        <v>2209.149665732695</v>
+        <v>3987552.042945272</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>94.00916871146944</v>
+        <v>1116428.383684422</v>
       </c>
       <c r="G22">
-        <v>159.0099708466074</v>
+        <v>4841334.995841282</v>
       </c>
       <c r="H22">
-        <v>1360.259945733473</v>
+        <v>3985978.7602815</v>
       </c>
       <c r="I22">
-        <v>-775.9630656427303</v>
+        <v>1115615.528985256</v>
       </c>
       <c r="J22">
-        <v>1707.247856004989</v>
+        <v>4842255.399587954</v>
       </c>
       <c r="K22">
-        <v>2220.239104139352</v>
+        <v>3987568.014383819</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>90.59853018599807</v>
+        <v>1116425.909291551</v>
       </c>
       <c r="G23">
-        <v>181.908551356697</v>
+        <v>4841351.508646051</v>
       </c>
       <c r="H23">
-        <v>1378.935139008138</v>
+        <v>3986000.893287733</v>
       </c>
       <c r="I23">
-        <v>-725.8822774649125</v>
+        <v>1115663.700288568</v>
       </c>
       <c r="J23">
-        <v>1626.368704292808</v>
+        <v>4842206.747947908</v>
       </c>
       <c r="K23">
-        <v>2220.810382882818</v>
+        <v>3987568.837161584</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>87.53353283213269</v>
+        <v>1116423.685658778</v>
       </c>
       <c r="G24">
-        <v>204.8071318667867</v>
+        <v>4841368.021450821</v>
       </c>
       <c r="H24">
-        <v>1396.326698053243</v>
+        <v>3986021.504987922</v>
       </c>
       <c r="I24">
-        <v>-674.5682959516964</v>
+        <v>1115713.057765906</v>
       </c>
       <c r="J24">
-        <v>1545.489552580627</v>
+        <v>4842158.096307861</v>
       </c>
       <c r="K24">
-        <v>2210.863501963094</v>
+        <v>3987554.511278566</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>84.7595556439292</v>
+        <v>1116421.673158969</v>
       </c>
       <c r="G25">
-        <v>227.7057123768764</v>
+        <v>4841384.534255589</v>
       </c>
       <c r="H25">
-        <v>1412.599791312467</v>
+        <v>3986040.791132341</v>
       </c>
       <c r="I25">
-        <v>-621.9907548517143</v>
+        <v>1115763.630625717</v>
       </c>
       <c r="J25">
-        <v>1464.610400868447</v>
+        <v>4842109.444667814</v>
       </c>
       <c r="K25">
-        <v>2190.39846138018</v>
+        <v>3987525.036734765</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>82.23333145290935</v>
+        <v>1116419.840402117</v>
       </c>
       <c r="G26">
-        <v>250.604292886966</v>
+        <v>4841401.047060358</v>
       </c>
       <c r="H26">
-        <v>1427.889626169646</v>
+        <v>3986058.91196275</v>
       </c>
       <c r="I26">
-        <v>-568.1185401725963</v>
+        <v>1115815.448795673</v>
       </c>
       <c r="J26">
-        <v>1383.731249156266</v>
+        <v>4842060.793027768</v>
       </c>
       <c r="K26">
-        <v>2159.415261134075</v>
+        <v>3987480.413530182</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>79.92008540770556</v>
+        <v>1116418.162159324</v>
       </c>
       <c r="G27">
-        <v>273.5028733970557</v>
+        <v>4841417.559865126</v>
       </c>
       <c r="H27">
-        <v>1442.308284075415</v>
+        <v>3986076.000313087</v>
       </c>
       <c r="I27">
-        <v>-512.9197717685339</v>
+        <v>1115868.542940393</v>
       </c>
       <c r="J27">
-        <v>1302.852097444085</v>
+        <v>4842012.141387721</v>
       </c>
       <c r="K27">
-        <v>2117.913901224779</v>
+        <v>3987420.641664817</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>77.79150742737349</v>
+        <v>1116416.617891839</v>
       </c>
       <c r="G28">
-        <v>296.4014539071454</v>
+        <v>4841434.072669895</v>
       </c>
       <c r="H28">
-        <v>1455.949711244644</v>
+        <v>3986092.167524217</v>
       </c>
       <c r="I28">
-        <v>-456.3617844744574</v>
+        <v>1115922.944479582</v>
       </c>
       <c r="J28">
-        <v>1221.972945731905</v>
+        <v>4841963.489747674</v>
       </c>
       <c r="K28">
-        <v>2065.894381652292</v>
+        <v>3987345.721138668</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>75.82428605598425</v>
+        <v>1116415.190687372</v>
       </c>
       <c r="G29">
-        <v>319.3000344172351</v>
+        <v>4841450.585474664</v>
       </c>
       <c r="H29">
-        <v>1468.893431718248</v>
+        <v>3986107.507844486</v>
       </c>
       <c r="I29">
-        <v>-398.4111087756578</v>
+        <v>1115978.685606624</v>
       </c>
       <c r="J29">
-        <v>1141.093794019724</v>
+        <v>4841914.838107628</v>
       </c>
       <c r="K29">
-        <v>2003.356702416615</v>
+        <v>3987255.651951738</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>73.99902894318996</v>
+        <v>1116413.866476919</v>
       </c>
       <c r="G30">
-        <v>342.1986149273246</v>
+        <v>4841467.098279433</v>
       </c>
       <c r="H30">
-        <v>1481.207356240373</v>
+        <v>3986122.101758679</v>
       </c>
       <c r="I30">
-        <v>-339.0334510014196</v>
+        <v>1116035.799307638</v>
       </c>
       <c r="J30">
-        <v>1060.214642307543</v>
+        <v>4841866.18646758</v>
       </c>
       <c r="K30">
-        <v>1930.300863517748</v>
+        <v>3987150.434104024</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>72.29945504739395</v>
+        <v>1116412.633448704</v>
       </c>
       <c r="G31">
-        <v>365.0971954374143</v>
+        <v>4841483.611084202</v>
       </c>
       <c r="H31">
-        <v>1492.94993894392</v>
+        <v>3986136.018544029</v>
       </c>
       <c r="I31">
-        <v>-278.1936730309343</v>
+        <v>1116094.319380997</v>
       </c>
       <c r="J31">
-        <v>979.3354905953629</v>
+        <v>4841817.534827533</v>
       </c>
       <c r="K31">
-        <v>1846.72686495569</v>
+        <v>3987030.067595528</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>70.71178131475943</v>
+        <v>1116411.481603225</v>
       </c>
       <c r="G32">
-        <v>387.995775947504</v>
+        <v>4841500.123888971</v>
       </c>
       <c r="H32">
-        <v>1504.171855527039</v>
+        <v>3986149.318259113</v>
       </c>
       <c r="I32">
-        <v>-215.8557714994954</v>
+        <v>1116154.280457324</v>
       </c>
       <c r="J32">
-        <v>898.4563388831822</v>
+        <v>4841768.883187487</v>
       </c>
       <c r="K32">
-        <v>1752.634706730441</v>
+        <v>3986894.55242625</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>69.22425085068605</v>
+        <v>1116410.402410942</v>
       </c>
       <c r="G33">
-        <v>410.8943564575936</v>
+        <v>4841516.636693739</v>
       </c>
       <c r="H33">
-        <v>1514.917324927223</v>
+        <v>3986162.053310242</v>
       </c>
       <c r="I33">
-        <v>-151.9828564926622</v>
+        <v>1116215.718019993</v>
       </c>
       <c r="J33">
-        <v>817.5771871710018</v>
+        <v>4841720.23154744</v>
       </c>
       <c r="K33">
-        <v>1648.024388842002</v>
+        <v>3986743.888596188</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>67.82676557792253</v>
+        <v>1116409.388545776</v>
       </c>
       <c r="G34">
-        <v>433.7929369676833</v>
+        <v>4841533.149498508</v>
       </c>
       <c r="H34">
-        <v>1525.225161681218</v>
+        <v>3986174.269698676</v>
       </c>
       <c r="I34">
-        <v>-86.53712971578993</v>
+        <v>1116278.668426121</v>
       </c>
       <c r="J34">
-        <v>736.698035458821</v>
+        <v>4841671.579907394</v>
       </c>
       <c r="K34">
-        <v>1532.895911290372</v>
+        <v>3986578.076105345</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>66.51059710603329</v>
+        <v>1116408.433675343</v>
       </c>
       <c r="G35">
-        <v>456.691517477773</v>
+        <v>4841549.662303276</v>
       </c>
       <c r="H35">
-        <v>1535.129622253114</v>
+        <v>3986186.008023648</v>
       </c>
       <c r="I35">
-        <v>-19.47986212600214</v>
+        <v>1116343.168928087</v>
       </c>
       <c r="J35">
-        <v>655.8188837466403</v>
+        <v>4841622.928267347</v>
       </c>
       <c r="K35">
-        <v>1407.249274075552</v>
+        <v>3986397.114953718</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>65.26815687381277</v>
+        <v>1116407.5322942</v>
       </c>
       <c r="G36">
-        <v>479.5900979878627</v>
+        <v>4841566.175108046</v>
       </c>
       <c r="H36">
-        <v>1544.661091916664</v>
+        <v>3986197.304296429</v>
       </c>
       <c r="I36">
-        <v>49.2286289866294</v>
+        <v>1116409.257695574</v>
       </c>
       <c r="J36">
-        <v>574.9397320344599</v>
+        <v>4841574.2766273</v>
       </c>
       <c r="K36">
-        <v>1271.084477197541</v>
+        <v>3986201.005141309</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>64.09281172553567</v>
+        <v>1116406.679590041</v>
       </c>
       <c r="G37">
-        <v>502.4886784979523</v>
+        <v>4841582.687912815</v>
       </c>
       <c r="H37">
-        <v>1553.846646933682</v>
+        <v>3986208.190606597</v>
       </c>
       <c r="I37">
-        <v>119.6290034822566</v>
+        <v>1116476.97383816</v>
       </c>
       <c r="J37">
-        <v>494.0605803222791</v>
+        <v>4841525.624987254</v>
       </c>
       <c r="K37">
-        <v>1124.40152065634</v>
+        <v>3985989.746668118</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>62.97873467960796</v>
+        <v>1116405.871335434</v>
       </c>
       <c r="G38">
-        <v>525.387259008042</v>
+        <v>4841599.200717583</v>
       </c>
       <c r="H38">
-        <v>1562.71051824737</v>
+        <v>3986218.695671587</v>
       </c>
       <c r="I38">
-        <v>191.7629224326824</v>
+        <v>1116546.357428459</v>
       </c>
       <c r="J38">
-        <v>413.1814286100987</v>
+        <v>4841476.973347208</v>
       </c>
       <c r="K38">
-        <v>967.200404451948</v>
+        <v>3985763.339534143</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>61.92078322176493</v>
+        <v>1116405.103799524</v>
       </c>
       <c r="G39">
-        <v>548.2858395181316</v>
+        <v>4841615.713522352</v>
       </c>
       <c r="H39">
-        <v>1571.27447669533</v>
+        <v>3986228.845293222</v>
       </c>
       <c r="I39">
-        <v>265.673072775273</v>
+        <v>1116617.449525838</v>
       </c>
       <c r="J39">
-        <v>332.302276897918</v>
+        <v>4841428.32170716</v>
       </c>
       <c r="K39">
-        <v>799.4811285843648</v>
+        <v>3985521.783739386</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>60.9143993195804</v>
+        <v>1116404.373675491</v>
       </c>
       <c r="G40">
-        <v>571.1844200282212</v>
+        <v>4841632.226327121</v>
       </c>
       <c r="H40">
-        <v>1579.55815516115</v>
+        <v>3986238.662739522</v>
       </c>
       <c r="I40">
-        <v>341.4031925739591</v>
+        <v>1116690.292200711</v>
       </c>
       <c r="J40">
-        <v>251.4231251857373</v>
+        <v>4841379.670067114</v>
       </c>
       <c r="K40">
-        <v>621.2436930535915</v>
+        <v>3985265.079283847</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>59.95552672207394</v>
+        <v>1116403.678020557</v>
       </c>
       <c r="G41">
-        <v>594.0830005383109</v>
+        <v>4841648.739131889</v>
       </c>
       <c r="H41">
-        <v>1587.579319661022</v>
+        <v>3986248.169065976</v>
       </c>
       <c r="I41">
-        <v>418.9980969022539</v>
+        <v>1116764.928559439</v>
       </c>
       <c r="J41">
-        <v>170.5439734735569</v>
+        <v>4841331.018427067</v>
       </c>
       <c r="K41">
-        <v>432.488097859628</v>
+        <v>3984993.226167525</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>59.04054212149006</v>
+        <v>1116403.014206038</v>
       </c>
       <c r="G42">
-        <v>616.9815810484006</v>
+        <v>4841665.251936659</v>
       </c>
       <c r="H42">
-        <v>1595.354098780948</v>
+        <v>3986257.383387466</v>
       </c>
       <c r="I42">
-        <v>498.5037043636317</v>
+        <v>1116841.402769837</v>
       </c>
       <c r="J42">
-        <v>89.66482176137613</v>
+        <v>4841282.366787021</v>
       </c>
       <c r="K42">
-        <v>233.2143430024733</v>
+        <v>3984706.22439042</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>58.16619751311372</v>
+        <v>1116402.37987553</v>
       </c>
       <c r="G43">
-        <v>639.8801615584903</v>
+        <v>4841681.764741428</v>
       </c>
       <c r="H43">
-        <v>1602.897178914938</v>
+        <v>3986266.323109651</v>
       </c>
       <c r="I43">
-        <v>579.9670642649276</v>
+        <v>1116919.76008731</v>
       </c>
       <c r="J43">
-        <v>8.785670049195385</v>
+        <v>4841233.715146974</v>
       </c>
       <c r="K43">
-        <v>23.42242848212821</v>
+        <v>3984404.073952533</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>57.32957166266787</v>
+        <v>1116401.772909701</v>
       </c>
       <c r="G44">
-        <v>662.77874206858</v>
+        <v>4841698.277546196</v>
       </c>
       <c r="H44">
-        <v>1610.221971244608</v>
+        <v>3986275.004126864</v>
       </c>
       <c r="I44">
-        <v>663.4363844588753</v>
+        <v>1117000.046881639</v>
       </c>
       <c r="J44">
-        <v>-72.09348166298498</v>
+        <v>4841185.063506927</v>
       </c>
       <c r="K44">
-        <v>-196.8876457014068</v>
+        <v>3984086.774853863</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>56.52802902845167</v>
+        <v>1116401.191396485</v>
       </c>
       <c r="G45">
-        <v>685.6773225786695</v>
+        <v>4841714.790350965</v>
       </c>
       <c r="H45">
-        <v>1617.340755230571</v>
+        <v>3986283.440992177</v>
       </c>
       <c r="I45">
-        <v>748.9610598722328</v>
+        <v>1117082.310664416</v>
       </c>
       <c r="J45">
-        <v>-152.9726333751657</v>
+        <v>4841136.411866881</v>
       </c>
       <c r="K45">
-        <v>-427.7158795481331</v>
+        <v>3983754.327094411</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>55.75918482200513</v>
+        <v>1116400.633605734</v>
       </c>
       <c r="G46">
-        <v>708.5759030887593</v>
+        <v>4841731.303155733</v>
       </c>
       <c r="H46">
-        <v>1624.264802472127</v>
+        <v>3986291.647064183</v>
       </c>
       <c r="I46">
-        <v>836.5917017363862</v>
+        <v>1117166.600117162</v>
       </c>
       <c r="J46">
-        <v>-233.8517850873465</v>
+        <v>4841087.760226833</v>
       </c>
       <c r="K46">
-        <v>-669.0622730580506</v>
+        <v>3983406.730674176</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>55.02087515208996</v>
+        <v>1116400.097967562</v>
       </c>
       <c r="G47">
-        <v>731.4744835988489</v>
+        <v>4841747.815960502</v>
       </c>
       <c r="H47">
-        <v>1631.004484072679</v>
+        <v>3986299.634634255</v>
       </c>
       <c r="I47">
-        <v>926.3801675377321</v>
+        <v>1117252.965120137</v>
       </c>
       <c r="J47">
-        <v>-314.7309367995272</v>
+        <v>4841039.108586786</v>
       </c>
       <c r="K47">
-        <v>-920.9268262311581</v>
+        <v>3983043.985593158</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>54.3111314006366</v>
+        <v>1116399.583053752</v>
       </c>
       <c r="G48">
-        <v>754.3730641089385</v>
+        <v>4841764.328765272</v>
       </c>
       <c r="H48">
-        <v>1637.569364078466</v>
+        <v>3986307.415037271</v>
       </c>
       <c r="I48">
-        <v>1018.379591705562</v>
+        <v>1117341.456781857</v>
       </c>
       <c r="J48">
-        <v>-395.6100885117073</v>
+        <v>4840990.45694674</v>
       </c>
       <c r="K48">
-        <v>-1183.309539067454</v>
+        <v>3982666.091851358</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>53.62815813966773</v>
+        <v>1116399.087561733</v>
       </c>
       <c r="G49">
-        <v>777.2716446190283</v>
+        <v>4841780.84157004</v>
       </c>
       <c r="H49">
-        <v>1643.968281103688</v>
+        <v>3986314.998748364</v>
       </c>
       <c r="I49">
-        <v>1112.644417055607</v>
+        <v>1117432.127469335</v>
       </c>
       <c r="J49">
-        <v>-476.489240223888</v>
+        <v>4840941.805306694</v>
       </c>
       <c r="K49">
-        <v>-1456.210411566943</v>
+        <v>3982273.049448775</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>52.97031402517511</v>
+        <v>1116398.610300723</v>
       </c>
       <c r="G50">
-        <v>800.1702251291179</v>
+        <v>4841797.354374809</v>
       </c>
       <c r="H50">
-        <v>1650.209419890223</v>
+        <v>3986322.395467725</v>
       </c>
       <c r="I50">
-        <v>1209.230427007847</v>
+        <v>1117525.030839077</v>
       </c>
       <c r="J50">
-        <v>-557.3683919360687</v>
+        <v>4840893.153666646</v>
       </c>
       <c r="K50">
-        <v>-1739.629443729622</v>
+        <v>3981864.85838541</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>52.33609520509281</v>
+        <v>1116398.150179689</v>
       </c>
       <c r="G51">
-        <v>823.0688056392075</v>
+        <v>4841813.867179578</v>
       </c>
       <c r="H51">
-        <v>1656.3003742556</v>
+        <v>3986329.614195207</v>
       </c>
       <c r="I51">
-        <v>1308.194778597661</v>
+        <v>1117620.221868829</v>
       </c>
       <c r="J51">
-        <v>-638.2475436482495</v>
+        <v>4840844.5020266</v>
       </c>
       <c r="K51">
-        <v>-2033.566635555492</v>
+        <v>3981441.518661262</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>51.72412085959569</v>
+        <v>1116397.706196855</v>
       </c>
       <c r="G52">
-        <v>845.9673861492972</v>
+        <v>4841830.379984346</v>
       </c>
       <c r="H52">
-        <v>1662.248202643705</v>
+        <v>3986336.663296164</v>
       </c>
       <c r="I52">
-        <v>1409.596036299842</v>
+        <v>1117717.756890115</v>
       </c>
       <c r="J52">
-        <v>-719.1266953604303</v>
+        <v>4840795.850386553</v>
       </c>
       <c r="K52">
-        <v>-2338.021987044553</v>
+        <v>3981003.030276331</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>51.13312055730278</v>
+        <v>1116397.277430533</v>
       </c>
       <c r="G53">
-        <v>868.8659666593869</v>
+        <v>4841846.892789115</v>
       </c>
       <c r="H53">
-        <v>1668.059477297418</v>
+        <v>3986343.550559725</v>
       </c>
       <c r="I53">
-        <v>1513.49420668549</v>
+        <v>1117817.693621569</v>
       </c>
       <c r="J53">
-        <v>-800.0058470726102</v>
+        <v>4840747.198746507</v>
       </c>
       <c r="K53">
-        <v>-2652.995498196801</v>
+        <v>3980549.393230618</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2291,1886 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>50.56192316392968</v>
+        <v>1116396.863031075</v>
       </c>
       <c r="G54">
-        <v>891.7645471694765</v>
+        <v>4841863.405593884</v>
       </c>
       <c r="H54">
-        <v>1673.740327912289</v>
+        <v>3986350.283250532</v>
       </c>
       <c r="I54">
-        <v>1619.950773932322</v>
+        <v>1117920.091203096</v>
       </c>
       <c r="J54">
-        <v>-880.884998784791</v>
+        <v>4840698.54710646</v>
       </c>
       <c r="K54">
-        <v>-2978.487169012243</v>
+        <v>3980080.607524122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G55">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H55">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I55">
+        <v>1114861.225494456</v>
+      </c>
+      <c r="J55">
+        <v>4843221.840997211</v>
+      </c>
+      <c r="K55">
+        <v>3984371.680186768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G56">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H56">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I56">
+        <v>1114890.839487415</v>
+      </c>
+      <c r="J56">
+        <v>4843173.189423377</v>
+      </c>
+      <c r="K56">
+        <v>3984675.476282365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G57">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H57">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I57">
+        <v>1114921.182697706</v>
+      </c>
+      <c r="J57">
+        <v>4843124.537849542</v>
+      </c>
+      <c r="K57">
+        <v>3984964.123712084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G58">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H58">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I58">
+        <v>1114952.273081636</v>
+      </c>
+      <c r="J58">
+        <v>4843075.886275708</v>
+      </c>
+      <c r="K58">
+        <v>3985237.622475925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G59">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H59">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I59">
+        <v>1114984.129037668</v>
+      </c>
+      <c r="J59">
+        <v>4843027.234701875</v>
+      </c>
+      <c r="K59">
+        <v>3985495.972573889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G60">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H60">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I60">
+        <v>1115016.769417309</v>
+      </c>
+      <c r="J60">
+        <v>4842978.583128041</v>
+      </c>
+      <c r="K60">
+        <v>3985739.174005975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G61">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H61">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I61">
+        <v>1115050.213536271</v>
+      </c>
+      <c r="J61">
+        <v>4842929.931554206</v>
+      </c>
+      <c r="K61">
+        <v>3985967.226772183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G62">
+        <v>4841125.318180233</v>
+      </c>
+      <c r="H62">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I62">
+        <v>1115084.481185894</v>
+      </c>
+      <c r="J62">
+        <v>4842881.279980372</v>
+      </c>
+      <c r="K62">
+        <v>3986180.130872514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116577.212252279</v>
+      </c>
+      <c r="G63">
+        <v>4841141.831002019</v>
+      </c>
+      <c r="H63">
+        <v>3985224.638252178</v>
+      </c>
+      <c r="I63">
+        <v>1115119.592644864</v>
+      </c>
+      <c r="J63">
+        <v>4842832.628406538</v>
+      </c>
+      <c r="K63">
+        <v>3986377.886306966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116528.53174482</v>
+      </c>
+      <c r="G64">
+        <v>4841158.343823804</v>
+      </c>
+      <c r="H64">
+        <v>3985423.892474454</v>
+      </c>
+      <c r="I64">
+        <v>1115155.568691209</v>
+      </c>
+      <c r="J64">
+        <v>4842783.976832704</v>
+      </c>
+      <c r="K64">
+        <v>3986560.493075541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116499.934388766</v>
+      </c>
+      <c r="G65">
+        <v>4841174.85664559</v>
+      </c>
+      <c r="H65">
+        <v>3985542.578479489</v>
+      </c>
+      <c r="I65">
+        <v>1115192.430614597</v>
+      </c>
+      <c r="J65">
+        <v>4842735.325258869</v>
+      </c>
+      <c r="K65">
+        <v>3986727.951178238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116481.881639616</v>
+      </c>
+      <c r="G66">
+        <v>4841191.369467375</v>
+      </c>
+      <c r="H66">
+        <v>3985627.395345608</v>
+      </c>
+      <c r="I66">
+        <v>1115230.200228937</v>
+      </c>
+      <c r="J66">
+        <v>4842686.673685035</v>
+      </c>
+      <c r="K66">
+        <v>3986880.260615057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116469.29172564</v>
+      </c>
+      <c r="G67">
+        <v>4841207.88228916</v>
+      </c>
+      <c r="H67">
+        <v>3985693.442193813</v>
+      </c>
+      <c r="I67">
+        <v>1115268.899885282</v>
+      </c>
+      <c r="J67">
+        <v>4842638.022111201</v>
+      </c>
+      <c r="K67">
+        <v>3987017.421385999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116459.899272788</v>
+      </c>
+      <c r="G68">
+        <v>4841224.395110945</v>
+      </c>
+      <c r="H68">
+        <v>3985747.539685554</v>
+      </c>
+      <c r="I68">
+        <v>1115308.552485062</v>
+      </c>
+      <c r="J68">
+        <v>4842589.370537367</v>
+      </c>
+      <c r="K68">
+        <v>3987139.433491062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116452.555686276</v>
+      </c>
+      <c r="G69">
+        <v>4841240.90793273</v>
+      </c>
+      <c r="H69">
+        <v>3985793.356312133</v>
+      </c>
+      <c r="I69">
+        <v>1115349.181493632</v>
+      </c>
+      <c r="J69">
+        <v>4842540.718963532</v>
+      </c>
+      <c r="K69">
+        <v>3987246.296930248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116446.614190083</v>
+      </c>
+      <c r="G70">
+        <v>4841257.420754516</v>
+      </c>
+      <c r="H70">
+        <v>3985833.093891239</v>
+      </c>
+      <c r="I70">
+        <v>1115390.81095416</v>
+      </c>
+      <c r="J70">
+        <v>4842492.067389698</v>
+      </c>
+      <c r="K70">
+        <v>3987338.011703556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116441.680631169</v>
+      </c>
+      <c r="G71">
+        <v>4841273.933576302</v>
+      </c>
+      <c r="H71">
+        <v>3985868.178241409</v>
+      </c>
+      <c r="I71">
+        <v>1115433.465501855</v>
+      </c>
+      <c r="J71">
+        <v>4842443.415815864</v>
+      </c>
+      <c r="K71">
+        <v>3987414.577810987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116437.499811194</v>
+      </c>
+      <c r="G72">
+        <v>4841290.446398086</v>
+      </c>
+      <c r="H72">
+        <v>3985899.585794797</v>
+      </c>
+      <c r="I72">
+        <v>1115477.170378545</v>
+      </c>
+      <c r="J72">
+        <v>4842394.76424203</v>
+      </c>
+      <c r="K72">
+        <v>3987475.995252539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116433.898442668</v>
+      </c>
+      <c r="G73">
+        <v>4841306.959219872</v>
+      </c>
+      <c r="H73">
+        <v>3985928.014618838</v>
+      </c>
+      <c r="I73">
+        <v>1115521.951447616</v>
+      </c>
+      <c r="J73">
+        <v>4842346.112668195</v>
+      </c>
+      <c r="K73">
+        <v>3987522.264028214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116430.754261855</v>
+      </c>
+      <c r="G74">
+        <v>4841323.472041657</v>
+      </c>
+      <c r="H74">
+        <v>3985953.981103536</v>
+      </c>
+      <c r="I74">
+        <v>1115567.835209316</v>
+      </c>
+      <c r="J74">
+        <v>4842297.461094361</v>
+      </c>
+      <c r="K74">
+        <v>3987553.384138011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116427.978247369</v>
+      </c>
+      <c r="G75">
+        <v>4841339.984863442</v>
+      </c>
+      <c r="H75">
+        <v>3985977.878003294</v>
+      </c>
+      <c r="I75">
+        <v>1115614.848816434</v>
+      </c>
+      <c r="J75">
+        <v>4842248.809520527</v>
+      </c>
+      <c r="K75">
+        <v>3987569.355581931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116425.503855396</v>
+      </c>
+      <c r="G76">
+        <v>4841356.497685228</v>
+      </c>
+      <c r="H76">
+        <v>3986000.011004628</v>
+      </c>
+      <c r="I76">
+        <v>1115663.020090377</v>
+      </c>
+      <c r="J76">
+        <v>4842200.157946693</v>
+      </c>
+      <c r="K76">
+        <v>3987570.178359972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116423.280223431</v>
+      </c>
+      <c r="G77">
+        <v>4841373.010507014</v>
+      </c>
+      <c r="H77">
+        <v>3986020.622700254</v>
+      </c>
+      <c r="I77">
+        <v>1115712.377537623</v>
+      </c>
+      <c r="J77">
+        <v>4842151.506372858</v>
+      </c>
+      <c r="K77">
+        <v>3987555.852472136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116421.267724353</v>
+      </c>
+      <c r="G78">
+        <v>4841389.523328798</v>
+      </c>
+      <c r="H78">
+        <v>3986039.908840403</v>
+      </c>
+      <c r="I78">
+        <v>1115762.9503666</v>
+      </c>
+      <c r="J78">
+        <v>4842102.854799024</v>
+      </c>
+      <c r="K78">
+        <v>3987526.377918422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116419.434968166</v>
+      </c>
+      <c r="G79">
+        <v>4841406.036150584</v>
+      </c>
+      <c r="H79">
+        <v>3986058.029666802</v>
+      </c>
+      <c r="I79">
+        <v>1115814.768504964</v>
+      </c>
+      <c r="J79">
+        <v>4842054.20322519</v>
+      </c>
+      <c r="K79">
+        <v>3987481.75469883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116417.756725983</v>
+      </c>
+      <c r="G80">
+        <v>4841422.548972369</v>
+      </c>
+      <c r="H80">
+        <v>3986075.118013357</v>
+      </c>
+      <c r="I80">
+        <v>1115867.862617314</v>
+      </c>
+      <c r="J80">
+        <v>4842005.551651355</v>
+      </c>
+      <c r="K80">
+        <v>3987421.98281336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116416.212459058</v>
+      </c>
+      <c r="G81">
+        <v>4841439.061794154</v>
+      </c>
+      <c r="H81">
+        <v>3986091.285220908</v>
+      </c>
+      <c r="I81">
+        <v>1115922.264123334</v>
+      </c>
+      <c r="J81">
+        <v>4841956.900077521</v>
+      </c>
+      <c r="K81">
+        <v>3987347.062262013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116414.78525511</v>
+      </c>
+      <c r="G82">
+        <v>4841455.57461594</v>
+      </c>
+      <c r="H82">
+        <v>3986106.625537782</v>
+      </c>
+      <c r="I82">
+        <v>1115978.005216392</v>
+      </c>
+      <c r="J82">
+        <v>4841908.248503687</v>
+      </c>
+      <c r="K82">
+        <v>3987256.993044788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116413.461045137</v>
+      </c>
+      <c r="G83">
+        <v>4841472.087437725</v>
+      </c>
+      <c r="H83">
+        <v>3986121.219448745</v>
+      </c>
+      <c r="I83">
+        <v>1116035.118882586</v>
+      </c>
+      <c r="J83">
+        <v>4841859.596929853</v>
+      </c>
+      <c r="K83">
+        <v>3987151.775161685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116412.22801737</v>
+      </c>
+      <c r="G84">
+        <v>4841488.600259511</v>
+      </c>
+      <c r="H84">
+        <v>3986135.136231014</v>
+      </c>
+      <c r="I84">
+        <v>1116093.638920266</v>
+      </c>
+      <c r="J84">
+        <v>4841810.945356018</v>
+      </c>
+      <c r="K84">
+        <v>3987031.408612704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116411.07617231</v>
+      </c>
+      <c r="G85">
+        <v>4841505.113081296</v>
+      </c>
+      <c r="H85">
+        <v>3986148.435943154</v>
+      </c>
+      <c r="I85">
+        <v>1116153.599960036</v>
+      </c>
+      <c r="J85">
+        <v>4841762.293782184</v>
+      </c>
+      <c r="K85">
+        <v>3986895.893397846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116409.996980419</v>
+      </c>
+      <c r="G86">
+        <v>4841521.625903081</v>
+      </c>
+      <c r="H86">
+        <v>3986161.170991465</v>
+      </c>
+      <c r="I86">
+        <v>1116215.037485248</v>
+      </c>
+      <c r="J86">
+        <v>4841713.64220835</v>
+      </c>
+      <c r="K86">
+        <v>3986745.22951711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116408.983115621</v>
+      </c>
+      <c r="G87">
+        <v>4841538.138724866</v>
+      </c>
+      <c r="H87">
+        <v>3986173.387377194</v>
+      </c>
+      <c r="I87">
+        <v>1116277.987852996</v>
+      </c>
+      <c r="J87">
+        <v>4841664.990634516</v>
+      </c>
+      <c r="K87">
+        <v>3986579.416970496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116408.028245535</v>
+      </c>
+      <c r="G88">
+        <v>4841554.651546651</v>
+      </c>
+      <c r="H88">
+        <v>3986185.125699568</v>
+      </c>
+      <c r="I88">
+        <v>1116342.488315637</v>
+      </c>
+      <c r="J88">
+        <v>4841616.339060681</v>
+      </c>
+      <c r="K88">
+        <v>3986398.455758004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116407.126864719</v>
+      </c>
+      <c r="G89">
+        <v>4841571.164368437</v>
+      </c>
+      <c r="H89">
+        <v>3986196.421969849</v>
+      </c>
+      <c r="I89">
+        <v>1116408.577042831</v>
+      </c>
+      <c r="J89">
+        <v>4841567.687486847</v>
+      </c>
+      <c r="K89">
+        <v>3986202.345879634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116406.274160869</v>
+      </c>
+      <c r="G90">
+        <v>4841587.677190223</v>
+      </c>
+      <c r="H90">
+        <v>3986207.308277607</v>
+      </c>
+      <c r="I90">
+        <v>1116476.293144132</v>
+      </c>
+      <c r="J90">
+        <v>4841519.035913013</v>
+      </c>
+      <c r="K90">
+        <v>3985991.087335387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116405.465906556</v>
+      </c>
+      <c r="G91">
+        <v>4841604.190012007</v>
+      </c>
+      <c r="H91">
+        <v>3986217.813340271</v>
+      </c>
+      <c r="I91">
+        <v>1116545.676692129</v>
+      </c>
+      <c r="J91">
+        <v>4841470.384339179</v>
+      </c>
+      <c r="K91">
+        <v>3985764.680125262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116404.698370925</v>
+      </c>
+      <c r="G92">
+        <v>4841620.702833793</v>
+      </c>
+      <c r="H92">
+        <v>3986227.96295966</v>
+      </c>
+      <c r="I92">
+        <v>1116616.768746165</v>
+      </c>
+      <c r="J92">
+        <v>4841421.732765344</v>
+      </c>
+      <c r="K92">
+        <v>3985523.124249259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116403.968247157</v>
+      </c>
+      <c r="G93">
+        <v>4841637.215655578</v>
+      </c>
+      <c r="H93">
+        <v>3986237.780403787</v>
+      </c>
+      <c r="I93">
+        <v>1116689.611376627</v>
+      </c>
+      <c r="J93">
+        <v>4841373.08119151</v>
+      </c>
+      <c r="K93">
+        <v>3985266.419707378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116403.272592476</v>
+      </c>
+      <c r="G94">
+        <v>4841653.728477363</v>
+      </c>
+      <c r="H94">
+        <v>3986247.286728137</v>
+      </c>
+      <c r="I94">
+        <v>1116764.247689851</v>
+      </c>
+      <c r="J94">
+        <v>4841324.429617676</v>
+      </c>
+      <c r="K94">
+        <v>3984994.56649962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116402.608778198</v>
+      </c>
+      <c r="G95">
+        <v>4841670.241299149</v>
+      </c>
+      <c r="H95">
+        <v>3986256.501047588</v>
+      </c>
+      <c r="I95">
+        <v>1116840.721853624</v>
+      </c>
+      <c r="J95">
+        <v>4841275.778043842</v>
+      </c>
+      <c r="K95">
+        <v>3984707.564625983</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116401.974447921</v>
+      </c>
+      <c r="G96">
+        <v>4841686.754120935</v>
+      </c>
+      <c r="H96">
+        <v>3986265.440767794</v>
+      </c>
+      <c r="I96">
+        <v>1116919.079123324</v>
+      </c>
+      <c r="J96">
+        <v>4841227.126470007</v>
+      </c>
+      <c r="K96">
+        <v>3984405.414086469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116401.367482312</v>
+      </c>
+      <c r="G97">
+        <v>4841703.26694272</v>
+      </c>
+      <c r="H97">
+        <v>3986274.121783086</v>
+      </c>
+      <c r="I97">
+        <v>1116999.365868704</v>
+      </c>
+      <c r="J97">
+        <v>4841178.474896173</v>
+      </c>
+      <c r="K97">
+        <v>3984088.114881078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116400.785969306</v>
+      </c>
+      <c r="G98">
+        <v>4841719.779764505</v>
+      </c>
+      <c r="H98">
+        <v>3986282.55864653</v>
+      </c>
+      <c r="I98">
+        <v>1117081.629601326</v>
+      </c>
+      <c r="J98">
+        <v>4841129.823322339</v>
+      </c>
+      <c r="K98">
+        <v>3983755.667009808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116400.228178758</v>
+      </c>
+      <c r="G99">
+        <v>4841736.29258629</v>
+      </c>
+      <c r="H99">
+        <v>3986290.764716721</v>
+      </c>
+      <c r="I99">
+        <v>1117165.919002683</v>
+      </c>
+      <c r="J99">
+        <v>4841081.171748504</v>
+      </c>
+      <c r="K99">
+        <v>3983408.070472661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116399.692540781</v>
+      </c>
+      <c r="G100">
+        <v>4841752.805408075</v>
+      </c>
+      <c r="H100">
+        <v>3986298.752285024</v>
+      </c>
+      <c r="I100">
+        <v>1117252.283953003</v>
+      </c>
+      <c r="J100">
+        <v>4841032.52017467</v>
+      </c>
+      <c r="K100">
+        <v>3983045.325269636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>86</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116399.177627158</v>
+      </c>
+      <c r="G101">
+        <v>4841769.318229862</v>
+      </c>
+      <c r="H101">
+        <v>3986306.532686318</v>
+      </c>
+      <c r="I101">
+        <v>1117340.775560771</v>
+      </c>
+      <c r="J101">
+        <v>4840983.868600836</v>
+      </c>
+      <c r="K101">
+        <v>3982667.431400733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>86</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116398.682135319</v>
+      </c>
+      <c r="G102">
+        <v>4841785.831051646</v>
+      </c>
+      <c r="H102">
+        <v>3986314.116395732</v>
+      </c>
+      <c r="I102">
+        <v>1117431.446192969</v>
+      </c>
+      <c r="J102">
+        <v>4840935.217027002</v>
+      </c>
+      <c r="K102">
+        <v>3982274.388865952</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>86</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116398.204874482</v>
+      </c>
+      <c r="G103">
+        <v>4841802.343873432</v>
+      </c>
+      <c r="H103">
+        <v>3986321.513113456</v>
+      </c>
+      <c r="I103">
+        <v>1117524.349506069</v>
+      </c>
+      <c r="J103">
+        <v>4840886.565453167</v>
+      </c>
+      <c r="K103">
+        <v>3981866.197665294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116397.744753615</v>
+      </c>
+      <c r="G104">
+        <v>4841818.856695217</v>
+      </c>
+      <c r="H104">
+        <v>3986328.731839341</v>
+      </c>
+      <c r="I104">
+        <v>1117619.540477786</v>
+      </c>
+      <c r="J104">
+        <v>4840837.913879333</v>
+      </c>
+      <c r="K104">
+        <v>3981442.857798758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>86</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116397.300770942</v>
+      </c>
+      <c r="G105">
+        <v>4841835.369517002</v>
+      </c>
+      <c r="H105">
+        <v>3986335.780938738</v>
+      </c>
+      <c r="I105">
+        <v>1117717.075439606</v>
+      </c>
+      <c r="J105">
+        <v>4840789.262305499</v>
+      </c>
+      <c r="K105">
+        <v>3981004.369266343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116396.872004776</v>
+      </c>
+      <c r="G106">
+        <v>4841851.882338787</v>
+      </c>
+      <c r="H106">
+        <v>3986342.668200774</v>
+      </c>
+      <c r="I106">
+        <v>1117817.012110131</v>
+      </c>
+      <c r="J106">
+        <v>4840740.610731665</v>
+      </c>
+      <c r="K106">
+        <v>3980550.732068052</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116396.457605468</v>
+      </c>
+      <c r="G107">
+        <v>4841868.395160574</v>
+      </c>
+      <c r="H107">
+        <v>3986349.40089009</v>
+      </c>
+      <c r="I107">
+        <v>1117919.409629228</v>
+      </c>
+      <c r="J107">
+        <v>4840691.95915783</v>
+      </c>
+      <c r="K107">
+        <v>3980081.946203883</v>
       </c>
     </row>
   </sheetData>
